--- a/softmax.xlsx
+++ b/softmax.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Documents\Source\Repos\classifyingParties_word2vec\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD63F66-44B7-4651-AEED-6196CC792F07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{884D1C69-DFF0-40BB-99DD-8A493A32C82A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Softmax" sheetId="1" r:id="rId1"/>
     <sheet name="acc_dt" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>不正解</t>
     <rPh sb="0" eb="3">
@@ -62,11 +56,15 @@
     <t>after</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +144,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -186,6 +184,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -194,26 +193,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -360,7 +339,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-67AE-48BD-9E36-8D1E804965D6}"/>
             </c:ext>
@@ -504,7 +483,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-67AE-48BD-9E36-8D1E804965D6}"/>
             </c:ext>
@@ -520,11 +499,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="432127176"/>
-        <c:axId val="432132424"/>
+        <c:axId val="180570752"/>
+        <c:axId val="180580736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432127176"/>
+        <c:axId val="180570752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +560,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432132424"/>
+        <c:crossAx val="180580736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -589,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432132424"/>
+        <c:axId val="180580736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +619,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432127176"/>
+        <c:crossAx val="180570752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -664,6 +643,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -695,14 +675,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1346,7 +1326,7 @@
         <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4156D3-87A8-4B38-B6C0-C727F9BDA6EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A4156D3-87A8-4B38-B6C0-C727F9BDA6EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,14 +1636,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A30D31-D68B-476D-A79E-937A869C4778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5284,11 +5264,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92292FBF-EB3F-47B8-ACA5-C8B5502A7509}">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5575,9 +5555,488 @@
         <v>-8.0675738600618498E-4</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.81953867028493899</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.80215343227296598</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.77852349017290401</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.82608695605055604</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.78038674033149102</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.80559440584449504</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.82101167319040502</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.78436317855743498</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.78431372580185399</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.79305912600231598</v>
+      </c>
+      <c r="L12" s="1">
+        <f>AVERAGE(B12:K12)</f>
+        <v>0.79950313985093602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.81682496607869703</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.80215343203230105</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.76912751677852298</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.81949934123847101</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.78314917127071804</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.80419580419580405</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.81971465629053097</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.79066834804539698</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.78692810457516305</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.79177377892030798</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13" si="13">AVERAGE(B13:K13)</f>
+        <v>0.79840351194259118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <f>B13-B12</f>
+        <v>-2.7137042062419514E-3</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:K14" si="14">C13-C12</f>
+        <v>-2.4066493242713705E-10</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="14"/>
+        <v>-9.3959733943810297E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="14"/>
+        <v>-6.5876148120850297E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="14"/>
+        <v>2.7624309392270119E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.3986016486909891E-3</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.2970168998740483E-3</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="14"/>
+        <v>6.3051694879620035E-3</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="14"/>
+        <v>2.6143787733090562E-3</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.2853470820080037E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ref="L14" si="15">AVERAGE(B14:K14)</f>
+        <v>-1.0996279083447913E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.80624187256176805</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.80739795918367296</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.78331090199032805</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.77483443736240498</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.79920739825209597</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.80769230792946101</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.77763157894736801</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.804097311597474</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.81720430107526798</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.76638176604213804</v>
+      </c>
+      <c r="L17" s="1">
+        <f>AVERAGE(B17:K17)</f>
+        <v>0.79439998349419783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.80364109232769798</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.81122448979591799</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.78465679676985201</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.77218543046357602</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.80184940554821604</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.81034482758620596</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.77631578947368396</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.80537772087067805</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.81989247311827895</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.76068376068375998</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" ref="L18" si="16">AVERAGE(B18:K18)</f>
+        <v>0.79461717866378667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <f>B18-B17</f>
+        <v>-2.6007802340700659E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:K19" si="17">C18-C17</f>
+        <v>3.8265306122450271E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="17"/>
+        <v>1.3458947795239595E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="17"/>
+        <v>-2.649006898828965E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="17"/>
+        <v>2.6420072961200747E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="17"/>
+        <v>2.652519656744956E-3</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.3157894736840481E-3</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="17"/>
+        <v>1.2804092732040528E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="17"/>
+        <v>2.6881720430109723E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="17"/>
+        <v>-5.6980053583780554E-3</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ref="L19" si="18">AVERAGE(B19:K19)</f>
+        <v>2.1719516958879082E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.80481283422459804</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.81491344873501903</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.79314888010540097</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.80971128608923804</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.78371161548731605</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.786163522012578</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.79094540612516595</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.82574772431729504</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.78423236514522798</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.81491712707182296</v>
+      </c>
+      <c r="L22" s="1">
+        <f>AVERAGE(B22:K22)</f>
+        <v>0.80083042093136625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.79679144369089605</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.81491344913185504</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.79183135689168704</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.81627296611392897</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.78104138855781302</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.78616352291227098</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.79227696444477103</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.83224967490247004</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.78699861716267805</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.805248618455223</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23" si="19">AVERAGE(B23:K23)</f>
+        <v>0.80037880022635943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <f>B23-B22</f>
+        <v>-8.0213905337019886E-3</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:K24" si="20">C23-C22</f>
+        <v>3.9683600849826917E-10</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.3175232137139226E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="20"/>
+        <v>6.5616800246909301E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.6702269295030279E-3</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="20"/>
+        <v>8.9969298677772258E-10</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="20"/>
+        <v>1.3315583196050751E-3</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="20"/>
+        <v>6.5019505851749981E-3</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="20"/>
+        <v>2.766252017450066E-3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="20"/>
+        <v>-9.6685086165999579E-3</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ref="L24" si="21">AVERAGE(B24:K24)</f>
+        <v>-4.5162070500688324E-4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:L4">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:L9">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:L14">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:L19">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -5586,7 +6045,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A24">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -5595,7 +6054,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:L9">
+  <conditionalFormatting sqref="B24:L24">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -5605,6 +6064,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/softmax.xlsx
+++ b/softmax.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>不正解</t>
     <rPh sb="0" eb="3">
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>after</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -499,11 +503,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="180570752"/>
-        <c:axId val="180580736"/>
+        <c:axId val="183716096"/>
+        <c:axId val="183726080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180570752"/>
+        <c:axId val="183716096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +564,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180580736"/>
+        <c:crossAx val="183726080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180580736"/>
+        <c:axId val="183726080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +623,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180570752"/>
+        <c:crossAx val="183716096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,7 +1330,7 @@
         <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A4156D3-87A8-4B38-B6C0-C727F9BDA6EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4156D3-87A8-4B38-B6C0-C727F9BDA6EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5265,10 +5269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5980,9 +5984,170 @@
         <v>-4.5162070500688324E-4</v>
       </c>
     </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.82754010695187097</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.79706275073167299</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.77849740932642397</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.80105401915209695</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.79591836653599102</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.79656538989301395</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.80716253459946097</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.81091877500639398</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.80497925245250701</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.79363057336230103</v>
+      </c>
+      <c r="L27" s="1">
+        <f>AVERAGE(B27:K27)</f>
+        <v>0.80133291780117344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.83155080213903698</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.79973297730307003</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.78756476683937804</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.80764163372858999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.79455782312925105</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.80184940554821604</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.80853994490358105</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.82023968042609796</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.80912863070539398</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.78853503184713303</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28" si="22">AVERAGE(B28:K28)</f>
+        <v>0.80493406965697467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
+        <f>B28-B27</f>
+        <v>4.0106951871660135E-3</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:K29" si="23">C28-C27</f>
+        <v>2.6702265713970386E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="23"/>
+        <v>9.0673575129540662E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="23"/>
+        <v>6.5876145764930394E-3</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="23"/>
+        <v>-1.3605434067399669E-3</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="23"/>
+        <v>5.28401565520209E-3</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="23"/>
+        <v>1.3774103041200858E-3</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="23"/>
+        <v>9.3209054197039842E-3</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="23"/>
+        <v>4.1493782528869705E-3</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="23"/>
+        <v>-5.0955415151680006E-3</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" ref="L29" si="24">AVERAGE(B29:K29)</f>
+        <v>3.601151855801532E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:L4">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:L9">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -5991,7 +6156,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A14">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6000,7 +6165,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:L9">
+  <conditionalFormatting sqref="B14:L14">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6009,7 +6174,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="A19">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6018,7 +6183,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:L14">
+  <conditionalFormatting sqref="B19:L19">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6027,7 +6192,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
+  <conditionalFormatting sqref="A24">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6036,7 +6201,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:L19">
+  <conditionalFormatting sqref="B24:L24">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6045,7 +6210,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A29">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6054,7 +6219,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:L24">
+  <conditionalFormatting sqref="B29:L29">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>

--- a/softmax.xlsx
+++ b/softmax.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Documents\Source\Repos\classifyingParties_word2vec\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670BDDB-6B36-4FA5-89BB-A93B96273458}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Softmax" sheetId="1" r:id="rId1"/>
     <sheet name="acc_dt" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
   <si>
     <t>不正解</t>
     <rPh sb="0" eb="3">
@@ -64,11 +70,15 @@
     <t>&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +158,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -188,7 +198,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -197,6 +206,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -343,7 +372,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-67AE-48BD-9E36-8D1E804965D6}"/>
             </c:ext>
@@ -487,7 +516,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-67AE-48BD-9E36-8D1E804965D6}"/>
             </c:ext>
@@ -647,7 +676,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -679,14 +707,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1330,7 +1358,7 @@
         <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4156D3-87A8-4B38-B6C0-C727F9BDA6EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4156D3-87A8-4B38-B6C0-C727F9BDA6EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,14 +1668,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5268,11 +5296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6127,9 +6155,186 @@
         <v>3.601151855801532E-3</v>
       </c>
     </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.80581241822463201</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.81364829490191004</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.76486129462325203</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.78033205657474203</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.79841897221421998</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.79356568368606195</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.78453038682265797</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.77105263095152998</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.77169559416528999</v>
+      </c>
+      <c r="L32" s="1">
+        <f>AVERAGE(B32:K32)</f>
+        <v>0.7861091245207773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.80977542932628799</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.82677165354330695</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.76750330250990695</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.79054916985951396</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.80105401844532198</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.81903485254691599</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.78804347826086896</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.78867403314917095</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.79342105263157803</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.77837116154873098</v>
+      </c>
+      <c r="L33" s="1">
+        <f>AVERAGE(B33:K33)</f>
+        <v>0.79631981518216022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1">
+        <f>B33-B32</f>
+        <v>3.9630111016559777E-3</v>
+      </c>
+      <c r="C34" s="1">
+        <f>C33-C32</f>
+        <v>1.3123358641396909E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D33-D32</f>
+        <v>2.6420078866549179E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <f>E33-E32</f>
+        <v>1.0217113284771928E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <f>F33-F32</f>
+        <v>2.6350462311020006E-3</v>
+      </c>
+      <c r="G34" s="1">
+        <f>G33-G32</f>
+        <v>2.5469168860854041E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <f>H33-H32</f>
+        <v>1.0869565217390909E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <f>I33-I32</f>
+        <v>4.1436463265129841E-3</v>
+      </c>
+      <c r="J34" s="1">
+        <f>J33-J32</f>
+        <v>2.2368421680048045E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <f>K33-K32</f>
+        <v>6.6755673834409945E-3</v>
+      </c>
+      <c r="L34" s="1">
+        <f>AVERAGE(B34:K34)</f>
+        <v>1.021069066138287E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:L4">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:L9">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:L14">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6138,7 +6343,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A19">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6147,7 +6352,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:L9">
+  <conditionalFormatting sqref="B19:L19">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6156,7 +6361,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="A24">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6165,7 +6370,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:L14">
+  <conditionalFormatting sqref="B24:L24">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6174,7 +6379,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
+  <conditionalFormatting sqref="A29">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6183,7 +6388,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:L19">
+  <conditionalFormatting sqref="B29:L29">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6192,7 +6397,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A34">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6201,7 +6406,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:L24">
+  <conditionalFormatting sqref="L34">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6210,7 +6415,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="B34:K34">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -6219,9 +6424,9 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:L29">
+  <conditionalFormatting sqref="B4:L4 B9:L9 B14:L14 B19:L19 B24:L24 B29:L29 B34:L34">
     <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
+      <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
